--- a/natmiOut/OldD7/LR-pairs_lrc2p/C3-Itgb2.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/C3-Itgb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,55 +528,55 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.470138041467683</v>
+        <v>1.558564</v>
       </c>
       <c r="H2">
-        <v>0.470138041467683</v>
+        <v>4.675692</v>
       </c>
       <c r="I2">
-        <v>0.001779278815664694</v>
+        <v>0.005692101168584756</v>
       </c>
       <c r="J2">
-        <v>0.001779278815664694</v>
+        <v>0.005692101168584756</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.462745182311199</v>
+        <v>0.1087903333333333</v>
       </c>
       <c r="N2">
-        <v>0.462745182311199</v>
+        <v>0.326371</v>
       </c>
       <c r="O2">
-        <v>0.007989275687980345</v>
+        <v>0.001630158713897873</v>
       </c>
       <c r="P2">
-        <v>0.007989275687980345</v>
+        <v>0.001630158713897873</v>
       </c>
       <c r="Q2">
-        <v>0.217554113710393</v>
+        <v>0.1695566970813333</v>
       </c>
       <c r="R2">
-        <v>0.217554113710393</v>
+        <v>1.526010273732</v>
       </c>
       <c r="S2">
-        <v>1.42151489841284E-05</v>
+        <v>9.279028320356707E-06</v>
       </c>
       <c r="T2">
-        <v>1.42151489841284E-05</v>
+        <v>9.279028320356704E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,60 +590,60 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.470138041467683</v>
+        <v>1.558564</v>
       </c>
       <c r="H3">
-        <v>0.470138041467683</v>
+        <v>4.675692</v>
       </c>
       <c r="I3">
-        <v>0.001779278815664694</v>
+        <v>0.005692101168584756</v>
       </c>
       <c r="J3">
-        <v>0.001779278815664694</v>
+        <v>0.005692101168584756</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>57.4580476884852</v>
+        <v>0.467525</v>
       </c>
       <c r="N3">
-        <v>57.4580476884852</v>
+        <v>1.402575</v>
       </c>
       <c r="O3">
-        <v>0.9920107243120196</v>
+        <v>0.007005585233201815</v>
       </c>
       <c r="P3">
-        <v>0.9920107243120196</v>
+        <v>0.007005585233201814</v>
       </c>
       <c r="Q3">
-        <v>27.01321400682117</v>
+        <v>0.7286676341</v>
       </c>
       <c r="R3">
-        <v>27.01321400682117</v>
+        <v>6.5580087069</v>
       </c>
       <c r="S3">
-        <v>0.001765063666680566</v>
+        <v>3.987649989252817E-05</v>
       </c>
       <c r="T3">
-        <v>0.001765063666680566</v>
+        <v>3.987649989252816E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>252.361879689836</v>
+        <v>1.558564</v>
       </c>
       <c r="H4">
-        <v>252.361879689836</v>
+        <v>4.675692</v>
       </c>
       <c r="I4">
-        <v>0.9550857552638886</v>
+        <v>0.005692101168584756</v>
       </c>
       <c r="J4">
-        <v>0.9550857552638886</v>
+        <v>0.005692101168584756</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.462745182311199</v>
+        <v>65.34528366666666</v>
       </c>
       <c r="N4">
-        <v>0.462745182311199</v>
+        <v>196.035851</v>
       </c>
       <c r="O4">
-        <v>0.007989275687980345</v>
+        <v>0.9791603749844046</v>
       </c>
       <c r="P4">
-        <v>0.007989275687980345</v>
+        <v>0.9791603749844042</v>
       </c>
       <c r="Q4">
-        <v>116.77924402547</v>
+        <v>101.8448066926546</v>
       </c>
       <c r="R4">
-        <v>116.77924402547</v>
+        <v>916.6032602338919</v>
       </c>
       <c r="S4">
-        <v>0.007630443404466131</v>
+        <v>0.005573479914680617</v>
       </c>
       <c r="T4">
-        <v>0.007630443404466131</v>
+        <v>0.005573479914680615</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,60 +714,60 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>252.361879689836</v>
+        <v>1.558564</v>
       </c>
       <c r="H5">
-        <v>252.361879689836</v>
+        <v>4.675692</v>
       </c>
       <c r="I5">
-        <v>0.9550857552638886</v>
+        <v>0.005692101168584756</v>
       </c>
       <c r="J5">
-        <v>0.9550857552638886</v>
+        <v>0.005692101168584756</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>57.4580476884852</v>
+        <v>0.8144386666666666</v>
       </c>
       <c r="N5">
-        <v>57.4580476884852</v>
+        <v>2.443316</v>
       </c>
       <c r="O5">
-        <v>0.9920107243120196</v>
+        <v>0.01220388106849596</v>
       </c>
       <c r="P5">
-        <v>0.9920107243120196</v>
+        <v>0.01220388106849596</v>
       </c>
       <c r="Q5">
-        <v>14500.22091797436</v>
+        <v>1.269354786074667</v>
       </c>
       <c r="R5">
-        <v>14500.22091797436</v>
+        <v>11.424193074672</v>
       </c>
       <c r="S5">
-        <v>0.9474553118594224</v>
+        <v>6.946572569125526E-05</v>
       </c>
       <c r="T5">
-        <v>0.9474553118594224</v>
+        <v>6.946572569125524E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -776,60 +776,60 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.0635042290981</v>
+        <v>259.5505726666667</v>
       </c>
       <c r="H6">
-        <v>11.0635042290981</v>
+        <v>778.6517180000001</v>
       </c>
       <c r="I6">
-        <v>0.04187080594541537</v>
+        <v>0.9479162344201305</v>
       </c>
       <c r="J6">
-        <v>0.04187080594541537</v>
+        <v>0.9479162344201304</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.462745182311199</v>
+        <v>0.1087903333333333</v>
       </c>
       <c r="N6">
-        <v>0.462745182311199</v>
+        <v>0.326371</v>
       </c>
       <c r="O6">
-        <v>0.007989275687980345</v>
+        <v>0.001630158713897873</v>
       </c>
       <c r="P6">
-        <v>0.007989275687980345</v>
+        <v>0.001630158713897873</v>
       </c>
       <c r="Q6">
-        <v>5.119583281494721</v>
+        <v>28.23659331726422</v>
       </c>
       <c r="R6">
-        <v>5.119583281494721</v>
+        <v>254.129339855378</v>
       </c>
       <c r="S6">
-        <v>0.00033451741197585</v>
+        <v>0.001545253909585235</v>
       </c>
       <c r="T6">
-        <v>0.00033451741197585</v>
+        <v>0.001545253909585234</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.0635042290981</v>
+        <v>259.5505726666667</v>
       </c>
       <c r="H7">
-        <v>11.0635042290981</v>
+        <v>778.6517180000001</v>
       </c>
       <c r="I7">
-        <v>0.04187080594541537</v>
+        <v>0.9479162344201305</v>
       </c>
       <c r="J7">
-        <v>0.04187080594541537</v>
+        <v>0.9479162344201304</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>57.4580476884852</v>
+        <v>0.467525</v>
       </c>
       <c r="N7">
-        <v>57.4580476884852</v>
+        <v>1.402575</v>
       </c>
       <c r="O7">
-        <v>0.9920107243120196</v>
+        <v>0.007005585233201815</v>
       </c>
       <c r="P7">
-        <v>0.9920107243120196</v>
+        <v>0.007005585233201814</v>
       </c>
       <c r="Q7">
-        <v>635.6873535972763</v>
+        <v>121.3463814859834</v>
       </c>
       <c r="R7">
-        <v>635.6873535972763</v>
+        <v>1092.11743337385</v>
       </c>
       <c r="S7">
-        <v>0.04153628853343953</v>
+        <v>0.006640707974165936</v>
       </c>
       <c r="T7">
-        <v>0.04153628853343953</v>
+        <v>0.006640707974165935</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.334028421813718</v>
+        <v>259.5505726666667</v>
       </c>
       <c r="H8">
-        <v>0.334028421813718</v>
+        <v>778.6517180000001</v>
       </c>
       <c r="I8">
-        <v>0.001264159975031318</v>
+        <v>0.9479162344201305</v>
       </c>
       <c r="J8">
-        <v>0.001264159975031318</v>
+        <v>0.9479162344201304</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.462745182311199</v>
+        <v>65.34528366666666</v>
       </c>
       <c r="N8">
-        <v>0.462745182311199</v>
+        <v>196.035851</v>
       </c>
       <c r="O8">
-        <v>0.007989275687980345</v>
+        <v>0.9791603749844046</v>
       </c>
       <c r="P8">
-        <v>0.007989275687980345</v>
+        <v>0.9791603749844042</v>
       </c>
       <c r="Q8">
-        <v>0.154570042949311</v>
+        <v>16960.40579674911</v>
       </c>
       <c r="R8">
-        <v>0.154570042949311</v>
+        <v>152643.652170742</v>
       </c>
       <c r="S8">
-        <v>1.009972255423555E-05</v>
+        <v>0.9281620155486198</v>
       </c>
       <c r="T8">
-        <v>1.009972255423555E-05</v>
+        <v>0.9281620155486193</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,551 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>259.5505726666667</v>
+      </c>
+      <c r="H9">
+        <v>778.6517180000001</v>
+      </c>
+      <c r="I9">
+        <v>0.9479162344201305</v>
+      </c>
+      <c r="J9">
+        <v>0.9479162344201304</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.8144386666666666</v>
+      </c>
+      <c r="N9">
+        <v>2.443316</v>
+      </c>
+      <c r="O9">
+        <v>0.01220388106849596</v>
+      </c>
+      <c r="P9">
+        <v>0.01220388106849596</v>
+      </c>
+      <c r="Q9">
+        <v>211.3880223352098</v>
+      </c>
+      <c r="R9">
+        <v>1902.492201016888</v>
+      </c>
+      <c r="S9">
+        <v>0.01156825698775981</v>
+      </c>
+      <c r="T9">
+        <v>0.01156825698775981</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.334028421813718</v>
-      </c>
-      <c r="H9">
-        <v>0.334028421813718</v>
-      </c>
-      <c r="I9">
-        <v>0.001264159975031318</v>
-      </c>
-      <c r="J9">
-        <v>0.001264159975031318</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>57.4580476884852</v>
-      </c>
-      <c r="N9">
-        <v>57.4580476884852</v>
-      </c>
-      <c r="O9">
-        <v>0.9920107243120196</v>
-      </c>
-      <c r="P9">
-        <v>0.9920107243120196</v>
-      </c>
-      <c r="Q9">
-        <v>19.19262098988206</v>
-      </c>
-      <c r="R9">
-        <v>19.19262098988206</v>
-      </c>
-      <c r="S9">
-        <v>0.001254060252477083</v>
-      </c>
-      <c r="T9">
-        <v>0.001254060252477083</v>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>12.18925266666667</v>
+      </c>
+      <c r="H10">
+        <v>36.567758</v>
+      </c>
+      <c r="I10">
+        <v>0.04451691386950307</v>
+      </c>
+      <c r="J10">
+        <v>0.04451691386950307</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.1087903333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.326371</v>
+      </c>
+      <c r="O10">
+        <v>0.001630158713897873</v>
+      </c>
+      <c r="P10">
+        <v>0.001630158713897873</v>
+      </c>
+      <c r="Q10">
+        <v>1.326072860690889</v>
+      </c>
+      <c r="R10">
+        <v>11.934655746218</v>
+      </c>
+      <c r="S10">
+        <v>7.256963506021152E-05</v>
+      </c>
+      <c r="T10">
+        <v>7.256963506021151E-05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>12.18925266666667</v>
+      </c>
+      <c r="H11">
+        <v>36.567758</v>
+      </c>
+      <c r="I11">
+        <v>0.04451691386950307</v>
+      </c>
+      <c r="J11">
+        <v>0.04451691386950307</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.467525</v>
+      </c>
+      <c r="N11">
+        <v>1.402575</v>
+      </c>
+      <c r="O11">
+        <v>0.007005585233201815</v>
+      </c>
+      <c r="P11">
+        <v>0.007005585233201814</v>
+      </c>
+      <c r="Q11">
+        <v>5.698780352983333</v>
+      </c>
+      <c r="R11">
+        <v>51.28902317685</v>
+      </c>
+      <c r="S11">
+        <v>0.0003118670344319078</v>
+      </c>
+      <c r="T11">
+        <v>0.0003118670344319078</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>12.18925266666667</v>
+      </c>
+      <c r="H12">
+        <v>36.567758</v>
+      </c>
+      <c r="I12">
+        <v>0.04451691386950307</v>
+      </c>
+      <c r="J12">
+        <v>0.04451691386950307</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>65.34528366666666</v>
+      </c>
+      <c r="N12">
+        <v>196.035851</v>
+      </c>
+      <c r="O12">
+        <v>0.9791603749844046</v>
+      </c>
+      <c r="P12">
+        <v>0.9791603749844042</v>
+      </c>
+      <c r="Q12">
+        <v>796.5101731880063</v>
+      </c>
+      <c r="R12">
+        <v>7168.591558692056</v>
+      </c>
+      <c r="S12">
+        <v>0.04358919807761107</v>
+      </c>
+      <c r="T12">
+        <v>0.04358919807761105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>12.18925266666667</v>
+      </c>
+      <c r="H13">
+        <v>36.567758</v>
+      </c>
+      <c r="I13">
+        <v>0.04451691386950307</v>
+      </c>
+      <c r="J13">
+        <v>0.04451691386950307</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.8144386666666666</v>
+      </c>
+      <c r="N13">
+        <v>2.443316</v>
+      </c>
+      <c r="O13">
+        <v>0.01220388106849596</v>
+      </c>
+      <c r="P13">
+        <v>0.01220388106849596</v>
+      </c>
+      <c r="Q13">
+        <v>9.927398689503111</v>
+      </c>
+      <c r="R13">
+        <v>89.34658820552799</v>
+      </c>
+      <c r="S13">
+        <v>0.000543279122399894</v>
+      </c>
+      <c r="T13">
+        <v>0.0005432791223998937</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.5133286666666667</v>
+      </c>
+      <c r="H14">
+        <v>1.539986</v>
+      </c>
+      <c r="I14">
+        <v>0.001874750541781658</v>
+      </c>
+      <c r="J14">
+        <v>0.001874750541781658</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.1087903333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.326371</v>
+      </c>
+      <c r="O14">
+        <v>0.001630158713897873</v>
+      </c>
+      <c r="P14">
+        <v>0.001630158713897873</v>
+      </c>
+      <c r="Q14">
+        <v>0.05584519675622222</v>
+      </c>
+      <c r="R14">
+        <v>0.5026067708059999</v>
+      </c>
+      <c r="S14">
+        <v>3.056140932070128E-06</v>
+      </c>
+      <c r="T14">
+        <v>3.056140932070128E-06</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.5133286666666667</v>
+      </c>
+      <c r="H15">
+        <v>1.539986</v>
+      </c>
+      <c r="I15">
+        <v>0.001874750541781658</v>
+      </c>
+      <c r="J15">
+        <v>0.001874750541781658</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.467525</v>
+      </c>
+      <c r="N15">
+        <v>1.402575</v>
+      </c>
+      <c r="O15">
+        <v>0.007005585233201815</v>
+      </c>
+      <c r="P15">
+        <v>0.007005585233201814</v>
+      </c>
+      <c r="Q15">
+        <v>0.2399939848833333</v>
+      </c>
+      <c r="R15">
+        <v>2.15994586395</v>
+      </c>
+      <c r="S15">
+        <v>1.313372471144269E-05</v>
+      </c>
+      <c r="T15">
+        <v>1.313372471144268E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.5133286666666667</v>
+      </c>
+      <c r="H16">
+        <v>1.539986</v>
+      </c>
+      <c r="I16">
+        <v>0.001874750541781658</v>
+      </c>
+      <c r="J16">
+        <v>0.001874750541781658</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>65.34528366666666</v>
+      </c>
+      <c r="N16">
+        <v>196.035851</v>
+      </c>
+      <c r="O16">
+        <v>0.9791603749844046</v>
+      </c>
+      <c r="P16">
+        <v>0.9791603749844042</v>
+      </c>
+      <c r="Q16">
+        <v>33.54360733756511</v>
+      </c>
+      <c r="R16">
+        <v>301.892466038086</v>
+      </c>
+      <c r="S16">
+        <v>0.001835681443493144</v>
+      </c>
+      <c r="T16">
+        <v>0.001835681443493143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.5133286666666667</v>
+      </c>
+      <c r="H17">
+        <v>1.539986</v>
+      </c>
+      <c r="I17">
+        <v>0.001874750541781658</v>
+      </c>
+      <c r="J17">
+        <v>0.001874750541781658</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.8144386666666666</v>
+      </c>
+      <c r="N17">
+        <v>2.443316</v>
+      </c>
+      <c r="O17">
+        <v>0.01220388106849596</v>
+      </c>
+      <c r="P17">
+        <v>0.01220388106849596</v>
+      </c>
+      <c r="Q17">
+        <v>0.4180747148417778</v>
+      </c>
+      <c r="R17">
+        <v>3.762672433575999</v>
+      </c>
+      <c r="S17">
+        <v>2.287923264500173E-05</v>
+      </c>
+      <c r="T17">
+        <v>2.287923264500172E-05</v>
       </c>
     </row>
   </sheetData>
